--- a/Input_data_KMC_Non_Lateral/KMC_output_varied_coverage/NONLateral_kMC Rate Constant_Analysis .xlsx
+++ b/Input_data_KMC_Non_Lateral/KMC_output_varied_coverage/NONLateral_kMC Rate Constant_Analysis .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klkusima/Desktop/RASH_Research/CO_ox/Kinetics/OOP_Kinetics/MiKi/Input_data_KMC_Non_Lateral/KMC_output_varied_coverage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F1B68-85FA-5C4F-8C88-B122E731F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B27906-98DD-A04E-BDAC-965F3230BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-500" windowWidth="38400" windowHeight="19500" activeTab="1" xr2:uid="{E1A8F411-447B-E24B-9094-95224F640229}"/>
+    <workbookView minimized="1" xWindow="-76800" yWindow="-1500" windowWidth="38400" windowHeight="19500" activeTab="1" xr2:uid="{E1A8F411-447B-E24B-9094-95224F640229}"/>
   </bookViews>
   <sheets>
     <sheet name="CO_ADSORPTIONISOTHERM" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="157">
   <si>
     <t>Desorption fcc</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>CO_O_oxidation_rev</t>
+  </si>
+  <si>
+    <t>fwd-min ; rvs-max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case2</t>
   </si>
 </sst>
 </file>
@@ -594,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -667,20 +679,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -865,8 +868,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2728C9-0547-F643-8C40-3306020C288D}">
   <dimension ref="A2:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1829,9 +1841,9 @@
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3072,7 +3084,7 @@
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
       <c r="B33" s="44" t="s">
         <v>35</v>
@@ -3087,7 +3099,7 @@
       <c r="J33" s="45"/>
       <c r="K33" s="45"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="48" t="s">
@@ -3118,7 +3130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -3205,8 +3217,16 @@
         <f t="shared" ref="K36:K55" si="13">H36/G36</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3249,14 +3269,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N37" s="70" t="s">
+      <c r="N37" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="72" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="73">
+        <v>830.28</v>
+      </c>
+      <c r="Q37" s="73">
+        <v>830.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -3299,12 +3325,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N38" s="70"/>
-      <c r="O38" s="3" t="s">
+      <c r="N38" s="71"/>
+      <c r="O38" s="72" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="73">
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="Q38" s="73">
+        <v>7.4708999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -3347,14 +3379,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N39" s="70" t="s">
+      <c r="N39" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="72" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="73">
+        <v>7768099.9999999991</v>
+      </c>
+      <c r="Q39" s="73">
+        <v>7768100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -3397,12 +3435,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N40" s="70"/>
-      <c r="O40" s="3" t="s">
+      <c r="N40" s="71"/>
+      <c r="O40" s="72" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="73">
+        <v>1041092.5</v>
+      </c>
+      <c r="Q40" s="73">
+        <v>2047300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -3445,14 +3489,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N41" s="70" t="s">
+      <c r="N41" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="72" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="73">
+        <v>136004.4</v>
+      </c>
+      <c r="Q41" s="73">
+        <v>5298.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -3495,12 +3545,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N42" s="70"/>
-      <c r="O42" s="3" t="s">
+      <c r="N42" s="71"/>
+      <c r="O42" s="72" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="73">
+        <v>1.788716745E-7</v>
+      </c>
+      <c r="Q42" s="73">
+        <v>3.5767E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>9</v>
       </c>
@@ -3543,14 +3599,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N43" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="72" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="73">
+        <v>1.14025</v>
+      </c>
+      <c r="Q43" s="73">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>10</v>
       </c>
@@ -3593,12 +3655,18 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="70"/>
-      <c r="O44" s="3" t="s">
+      <c r="N44" s="71"/>
+      <c r="O44" s="72" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>11</v>
       </c>
@@ -3641,8 +3709,10 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -3685,8 +3755,18 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46" s="70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>13</v>
       </c>
@@ -3729,8 +3809,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" s="73">
+        <v>830.28</v>
+      </c>
+      <c r="Q47" s="73">
+        <v>830.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -3773,8 +3865,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N48" s="71"/>
+      <c r="O48" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="P48" s="73">
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="Q48" s="73">
+        <v>7.4708999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>15</v>
       </c>
@@ -3817,8 +3919,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N49" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="O49" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="73">
+        <v>7768099.9999999991</v>
+      </c>
+      <c r="Q49" s="73">
+        <v>7768100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>16</v>
       </c>
@@ -3861,8 +3975,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N50" s="71"/>
+      <c r="O50" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" s="73">
+        <v>1041092.5</v>
+      </c>
+      <c r="Q50" s="73">
+        <v>2047300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>17</v>
       </c>
@@ -3905,8 +4029,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N51" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="O51" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" s="73">
+        <v>136004.4</v>
+      </c>
+      <c r="Q51" s="73">
+        <v>5298.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>18</v>
       </c>
@@ -3949,8 +4085,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N52" s="71"/>
+      <c r="O52" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52" s="73">
+        <v>1.788716745E-7</v>
+      </c>
+      <c r="Q52" s="73">
+        <v>3.5767E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>19</v>
       </c>
@@ -3993,8 +4139,20 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N53" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="O53" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" s="73">
+        <v>1.14025</v>
+      </c>
+      <c r="Q53" s="73">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>20</v>
       </c>
@@ -4037,8 +4195,18 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N54" s="71"/>
+      <c r="O54" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="P54" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>21</v>
       </c>
@@ -4082,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>22</v>
       </c>
@@ -4127,10 +4295,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="N53:N54"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="N49:N50"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="N12:S12"/>
